--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="C121" t="n">
-        <v>6479</v>
+        <v>6480</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,13 +5754,13 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
       </c>
       <c r="C385" t="n">
-        <v>7043</v>
+        <v>7042</v>
       </c>
       <c r="D385" t="s">
         <v>5</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,13 +5838,13 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
       </c>
       <c r="C391" t="n">
-        <v>5949</v>
+        <v>5950</v>
       </c>
       <c r="D391" t="s">
         <v>5</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="C399" t="n">
-        <v>7011</v>
+        <v>7032</v>
       </c>
       <c r="D399" t="s">
         <v>5</v>
@@ -5964,13 +5964,13 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C400" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D400" t="s">
         <v>4</v>
@@ -5978,13 +5978,13 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C401" t="n">
-        <v>6328</v>
+        <v>6381</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -5992,13 +5992,13 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C402" t="n">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="D402" t="s">
         <v>4</v>
@@ -6006,15 +6006,71 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44057.3196759259</v>
+        <v>44059.3170949074</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C403" t="n">
-        <v>5232</v>
+        <v>7009</v>
       </c>
       <c r="D403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>44059.3170949074</v>
+      </c>
+      <c r="B404" s="1" t="n">
+        <v>44057</v>
+      </c>
+      <c r="C404" t="n">
+        <v>281</v>
+      </c>
+      <c r="D404" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>44059.3170949074</v>
+      </c>
+      <c r="B405" s="1" t="n">
+        <v>44057</v>
+      </c>
+      <c r="C405" t="n">
+        <v>6797</v>
+      </c>
+      <c r="D405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>44059.3170949074</v>
+      </c>
+      <c r="B406" s="1" t="n">
+        <v>44058</v>
+      </c>
+      <c r="C406" t="n">
+        <v>166</v>
+      </c>
+      <c r="D406" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>44059.3170949074</v>
+      </c>
+      <c r="B407" s="1" t="n">
+        <v>44058</v>
+      </c>
+      <c r="C407" t="n">
+        <v>3642</v>
+      </c>
+      <c r="D407" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,13 +5418,13 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
       </c>
       <c r="C361" t="n">
-        <v>5333</v>
+        <v>5332</v>
       </c>
       <c r="D361" t="s">
         <v>5</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,13 +5782,13 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="C387" t="n">
-        <v>6587</v>
+        <v>6588</v>
       </c>
       <c r="D387" t="s">
         <v>5</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="C399" t="n">
-        <v>7032</v>
+        <v>7068</v>
       </c>
       <c r="D399" t="s">
         <v>5</v>
@@ -5964,13 +5964,13 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C400" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D400" t="s">
         <v>4</v>
@@ -5978,13 +5978,13 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C401" t="n">
-        <v>6381</v>
+        <v>6429</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -5992,13 +5992,13 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C402" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D402" t="s">
         <v>4</v>
@@ -6006,13 +6006,13 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C403" t="n">
-        <v>7009</v>
+        <v>7028</v>
       </c>
       <c r="D403" t="s">
         <v>5</v>
@@ -6020,13 +6020,13 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C404" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D404" t="s">
         <v>4</v>
@@ -6034,13 +6034,13 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C405" t="n">
-        <v>6797</v>
+        <v>6884</v>
       </c>
       <c r="D405" t="s">
         <v>5</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C406" t="n">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
@@ -6062,15 +6062,71 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44059.3170949074</v>
+        <v>44061.3211689815</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C407" t="n">
-        <v>3642</v>
+        <v>4565</v>
       </c>
       <c r="D407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>44061.3211689815</v>
+      </c>
+      <c r="B408" s="1" t="n">
+        <v>44059</v>
+      </c>
+      <c r="C408" t="n">
+        <v>120</v>
+      </c>
+      <c r="D408" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>44061.3211689815</v>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>44059</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2233</v>
+      </c>
+      <c r="D409" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>44061.3211689815</v>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>44060</v>
+      </c>
+      <c r="C410" t="n">
+        <v>207</v>
+      </c>
+      <c r="D410" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>44061.3211689815</v>
+      </c>
+      <c r="B411" s="1" t="n">
+        <v>44060</v>
+      </c>
+      <c r="C411" t="n">
+        <v>4893</v>
+      </c>
+      <c r="D411" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C193" t="n">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="D193" t="s">
         <v>5</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
       </c>
       <c r="C229" t="n">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="D229" t="s">
         <v>5</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,13 +4046,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
       </c>
       <c r="C263" t="n">
-        <v>5188</v>
+        <v>5187</v>
       </c>
       <c r="D263" t="s">
         <v>5</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,13 +4382,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
       </c>
       <c r="C287" t="n">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="D287" t="s">
         <v>5</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
       </c>
       <c r="C299" t="n">
-        <v>8171</v>
+        <v>8170</v>
       </c>
       <c r="D299" t="s">
         <v>5</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,13 +4858,13 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
       </c>
       <c r="C321" t="n">
-        <v>10269</v>
+        <v>10268</v>
       </c>
       <c r="D321" t="s">
         <v>5</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,13 +4970,13 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
       </c>
       <c r="C329" t="n">
-        <v>9861</v>
+        <v>9860</v>
       </c>
       <c r="D329" t="s">
         <v>5</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,13 +5026,13 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
       </c>
       <c r="C333" t="n">
-        <v>8410</v>
+        <v>8409</v>
       </c>
       <c r="D333" t="s">
         <v>5</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,13 +5054,13 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
       </c>
       <c r="C335" t="n">
-        <v>7572</v>
+        <v>7571</v>
       </c>
       <c r="D335" t="s">
         <v>5</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,13 +5138,13 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
       </c>
       <c r="C341" t="n">
-        <v>6732</v>
+        <v>6731</v>
       </c>
       <c r="D341" t="s">
         <v>5</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,13 +5362,13 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
       </c>
       <c r="C357" t="n">
-        <v>6679</v>
+        <v>6678</v>
       </c>
       <c r="D357" t="s">
         <v>5</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,13 +5390,13 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
       </c>
       <c r="C359" t="n">
-        <v>6586</v>
+        <v>6585</v>
       </c>
       <c r="D359" t="s">
         <v>5</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,13 +5642,13 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
       </c>
       <c r="C377" t="n">
-        <v>5498</v>
+        <v>5497</v>
       </c>
       <c r="D377" t="s">
         <v>5</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,13 +5726,13 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
       </c>
       <c r="C383" t="n">
-        <v>6038</v>
+        <v>6043</v>
       </c>
       <c r="D383" t="s">
         <v>5</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,13 +5754,13 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
       </c>
       <c r="C385" t="n">
-        <v>7042</v>
+        <v>7110</v>
       </c>
       <c r="D385" t="s">
         <v>5</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,13 +5782,13 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="C387" t="n">
-        <v>6588</v>
+        <v>6589</v>
       </c>
       <c r="D387" t="s">
         <v>5</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,13 +5810,13 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="C389" t="n">
-        <v>6425</v>
+        <v>6426</v>
       </c>
       <c r="D389" t="s">
         <v>5</v>
@@ -5824,13 +5824,13 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
       </c>
       <c r="C390" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D390" t="s">
         <v>4</v>
@@ -5838,13 +5838,13 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
       </c>
       <c r="C391" t="n">
-        <v>5950</v>
+        <v>5959</v>
       </c>
       <c r="D391" t="s">
         <v>5</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,13 +5866,13 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
       </c>
       <c r="C393" t="n">
-        <v>3523</v>
+        <v>3579</v>
       </c>
       <c r="D393" t="s">
         <v>5</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,13 +5894,13 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
       </c>
       <c r="C395" t="n">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="D395" t="s">
         <v>5</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="C399" t="n">
-        <v>7068</v>
+        <v>7069</v>
       </c>
       <c r="D399" t="s">
         <v>5</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
@@ -5978,13 +5978,13 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C401" t="n">
-        <v>6429</v>
+        <v>6430</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -5992,13 +5992,13 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C402" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D402" t="s">
         <v>4</v>
@@ -6006,13 +6006,13 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C403" t="n">
-        <v>7028</v>
+        <v>7062</v>
       </c>
       <c r="D403" t="s">
         <v>5</v>
@@ -6020,13 +6020,13 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C404" t="n">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="D404" t="s">
         <v>4</v>
@@ -6034,13 +6034,13 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C405" t="n">
-        <v>6884</v>
+        <v>6937</v>
       </c>
       <c r="D405" t="s">
         <v>5</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C406" t="n">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
@@ -6062,13 +6062,13 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C407" t="n">
-        <v>4565</v>
+        <v>4585</v>
       </c>
       <c r="D407" t="s">
         <v>5</v>
@@ -6076,13 +6076,13 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="C408" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D408" t="s">
         <v>4</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="C409" t="n">
-        <v>2233</v>
+        <v>2247</v>
       </c>
       <c r="D409" t="s">
         <v>5</v>
@@ -6104,13 +6104,13 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C410" t="n">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="D410" t="s">
         <v>4</v>
@@ -6118,15 +6118,43 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44061.3211689815</v>
+        <v>44062.3427430556</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C411" t="n">
-        <v>4893</v>
+        <v>7759</v>
       </c>
       <c r="D411" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>44062.3427430556</v>
+      </c>
+      <c r="B412" s="1" t="n">
+        <v>44061</v>
+      </c>
+      <c r="C412" t="n">
+        <v>247</v>
+      </c>
+      <c r="D412" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>44062.3427430556</v>
+      </c>
+      <c r="B413" s="1" t="n">
+        <v>44061</v>
+      </c>
+      <c r="C413" t="n">
+        <v>7310</v>
+      </c>
+      <c r="D413" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,13 +2478,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
       </c>
       <c r="C151" t="n">
-        <v>5293</v>
+        <v>5294</v>
       </c>
       <c r="D151" t="s">
         <v>5</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
       </c>
       <c r="C229" t="n">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="D229" t="s">
         <v>5</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,13 +4046,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
       </c>
       <c r="C263" t="n">
-        <v>5187</v>
+        <v>5188</v>
       </c>
       <c r="D263" t="s">
         <v>5</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,13 +4382,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
       </c>
       <c r="C287" t="n">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="D287" t="s">
         <v>5</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,13 +4858,13 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
       </c>
       <c r="C321" t="n">
-        <v>10268</v>
+        <v>10269</v>
       </c>
       <c r="D321" t="s">
         <v>5</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,13 +4970,13 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
       </c>
       <c r="C329" t="n">
-        <v>9860</v>
+        <v>9861</v>
       </c>
       <c r="D329" t="s">
         <v>5</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,13 +5026,13 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
       </c>
       <c r="C333" t="n">
-        <v>8409</v>
+        <v>8410</v>
       </c>
       <c r="D333" t="s">
         <v>5</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,13 +5054,13 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
       </c>
       <c r="C335" t="n">
-        <v>7571</v>
+        <v>7572</v>
       </c>
       <c r="D335" t="s">
         <v>5</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,13 +5138,13 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
       </c>
       <c r="C341" t="n">
-        <v>6731</v>
+        <v>6732</v>
       </c>
       <c r="D341" t="s">
         <v>5</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,13 +5320,13 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
       </c>
       <c r="C354" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D354" t="s">
         <v>4</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,13 +5362,13 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
       </c>
       <c r="C357" t="n">
-        <v>6678</v>
+        <v>6679</v>
       </c>
       <c r="D357" t="s">
         <v>5</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,13 +5390,13 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
       </c>
       <c r="C359" t="n">
-        <v>6585</v>
+        <v>6586</v>
       </c>
       <c r="D359" t="s">
         <v>5</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,13 +5642,13 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
       </c>
       <c r="C377" t="n">
-        <v>5497</v>
+        <v>5498</v>
       </c>
       <c r="D377" t="s">
         <v>5</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,13 +5782,13 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="C387" t="n">
-        <v>6589</v>
+        <v>6590</v>
       </c>
       <c r="D387" t="s">
         <v>5</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,13 +5866,13 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
       </c>
       <c r="C393" t="n">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="D393" t="s">
         <v>5</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,13 +5922,13 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
       </c>
       <c r="C397" t="n">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="D397" t="s">
         <v>5</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
@@ -5978,13 +5978,13 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C401" t="n">
-        <v>6430</v>
+        <v>6427</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
@@ -6006,13 +6006,13 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C403" t="n">
-        <v>7062</v>
+        <v>7063</v>
       </c>
       <c r="D403" t="s">
         <v>5</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
@@ -6034,13 +6034,13 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C405" t="n">
-        <v>6937</v>
+        <v>7043</v>
       </c>
       <c r="D405" t="s">
         <v>5</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C406" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
@@ -6062,13 +6062,13 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C407" t="n">
-        <v>4585</v>
+        <v>4650</v>
       </c>
       <c r="D407" t="s">
         <v>5</v>
@@ -6076,13 +6076,13 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="C408" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D408" t="s">
         <v>4</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="C409" t="n">
-        <v>2247</v>
+        <v>2298</v>
       </c>
       <c r="D409" t="s">
         <v>5</v>
@@ -6104,13 +6104,13 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C410" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D410" t="s">
         <v>4</v>
@@ -6118,13 +6118,13 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C411" t="n">
-        <v>7759</v>
+        <v>7928</v>
       </c>
       <c r="D411" t="s">
         <v>5</v>
@@ -6132,13 +6132,13 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C412" t="n">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="D412" t="s">
         <v>4</v>
@@ -6146,15 +6146,71 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44062.3427430556</v>
+        <v>44064.3262152778</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C413" t="n">
-        <v>7310</v>
+        <v>9938</v>
       </c>
       <c r="D413" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>44064.3262152778</v>
+      </c>
+      <c r="B414" s="1" t="n">
+        <v>44062</v>
+      </c>
+      <c r="C414" t="n">
+        <v>301</v>
+      </c>
+      <c r="D414" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>44064.3262152778</v>
+      </c>
+      <c r="B415" s="1" t="n">
+        <v>44062</v>
+      </c>
+      <c r="C415" t="n">
+        <v>8998</v>
+      </c>
+      <c r="D415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>44064.3262152778</v>
+      </c>
+      <c r="B416" s="1" t="n">
+        <v>44063</v>
+      </c>
+      <c r="C416" t="n">
+        <v>256</v>
+      </c>
+      <c r="D416" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>44064.3262152778</v>
+      </c>
+      <c r="B417" s="1" t="n">
+        <v>44063</v>
+      </c>
+      <c r="C417" t="n">
+        <v>6732</v>
+      </c>
+      <c r="D417" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,13 +4074,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
       </c>
       <c r="C265" t="n">
-        <v>4794</v>
+        <v>4795</v>
       </c>
       <c r="D265" t="s">
         <v>5</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,13 +4284,13 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
       </c>
       <c r="C280" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D280" t="s">
         <v>4</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,13 +4578,13 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
       </c>
       <c r="C301" t="n">
-        <v>11601</v>
+        <v>11602</v>
       </c>
       <c r="D301" t="s">
         <v>5</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,13 +4662,13 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="C307" t="n">
-        <v>10099</v>
+        <v>10101</v>
       </c>
       <c r="D307" t="s">
         <v>5</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,13 +5838,13 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
       </c>
       <c r="C391" t="n">
-        <v>5959</v>
+        <v>5958</v>
       </c>
       <c r="D391" t="s">
         <v>5</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,13 +5866,13 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
       </c>
       <c r="C393" t="n">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="D393" t="s">
         <v>5</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="C399" t="n">
-        <v>7069</v>
+        <v>7070</v>
       </c>
       <c r="D399" t="s">
         <v>5</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
@@ -5978,13 +5978,13 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C401" t="n">
-        <v>6427</v>
+        <v>6426</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
@@ -6006,13 +6006,13 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C403" t="n">
-        <v>7063</v>
+        <v>7064</v>
       </c>
       <c r="D403" t="s">
         <v>5</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="C409" t="n">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="D409" t="s">
         <v>5</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
@@ -6118,13 +6118,13 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C411" t="n">
-        <v>7928</v>
+        <v>7929</v>
       </c>
       <c r="D411" t="s">
         <v>5</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
@@ -6146,13 +6146,13 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C413" t="n">
-        <v>9938</v>
+        <v>9910</v>
       </c>
       <c r="D413" t="s">
         <v>5</v>
@@ -6160,13 +6160,13 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
       </c>
       <c r="C414" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D414" t="s">
         <v>4</v>
@@ -6174,13 +6174,13 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
       </c>
       <c r="C415" t="n">
-        <v>8998</v>
+        <v>9092</v>
       </c>
       <c r="D415" t="s">
         <v>5</v>
@@ -6188,13 +6188,13 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="C416" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="D416" t="s">
         <v>4</v>
@@ -6202,15 +6202,127 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44064.3262152778</v>
+        <v>44068.3228703704</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="C417" t="n">
-        <v>6732</v>
+        <v>9646</v>
       </c>
       <c r="D417" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>44068.3228703704</v>
+      </c>
+      <c r="B418" s="1" t="n">
+        <v>44064</v>
+      </c>
+      <c r="C418" t="n">
+        <v>378</v>
+      </c>
+      <c r="D418" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>44068.3228703704</v>
+      </c>
+      <c r="B419" s="1" t="n">
+        <v>44064</v>
+      </c>
+      <c r="C419" t="n">
+        <v>9487</v>
+      </c>
+      <c r="D419" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>44068.3228703704</v>
+      </c>
+      <c r="B420" s="1" t="n">
+        <v>44065</v>
+      </c>
+      <c r="C420" t="n">
+        <v>268</v>
+      </c>
+      <c r="D420" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>44068.3228703704</v>
+      </c>
+      <c r="B421" s="1" t="n">
+        <v>44065</v>
+      </c>
+      <c r="C421" t="n">
+        <v>5817</v>
+      </c>
+      <c r="D421" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>44068.3228703704</v>
+      </c>
+      <c r="B422" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="C422" t="n">
+        <v>158</v>
+      </c>
+      <c r="D422" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>44068.3228703704</v>
+      </c>
+      <c r="B423" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="C423" t="n">
+        <v>3062</v>
+      </c>
+      <c r="D423" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>44068.3228703704</v>
+      </c>
+      <c r="B424" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="C424" t="n">
+        <v>158</v>
+      </c>
+      <c r="D424" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>44068.3228703704</v>
+      </c>
+      <c r="B425" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="C425" t="n">
+        <v>5493</v>
+      </c>
+      <c r="D425" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,13 +3906,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
       </c>
       <c r="C253" t="n">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="D253" t="s">
         <v>5</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,13 +3990,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
       </c>
       <c r="C259" t="n">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="D259" t="s">
         <v>5</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,13 +4018,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
       </c>
       <c r="C261" t="n">
-        <v>5230</v>
+        <v>5231</v>
       </c>
       <c r="D261" t="s">
         <v>5</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,13 +4326,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
       </c>
       <c r="C283" t="n">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="D283" t="s">
         <v>5</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,13 +4438,13 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
       </c>
       <c r="C291" t="n">
-        <v>8411</v>
+        <v>8412</v>
       </c>
       <c r="D291" t="s">
         <v>5</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,13 +4466,13 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
       </c>
       <c r="C293" t="n">
-        <v>7547</v>
+        <v>7548</v>
       </c>
       <c r="D293" t="s">
         <v>5</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,13 +4494,13 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
       </c>
       <c r="C295" t="n">
-        <v>4654</v>
+        <v>4659</v>
       </c>
       <c r="D295" t="s">
         <v>5</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,13 +4578,13 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
       </c>
       <c r="C301" t="n">
-        <v>11602</v>
+        <v>11610</v>
       </c>
       <c r="D301" t="s">
         <v>5</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,13 +4606,13 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
       </c>
       <c r="C303" t="n">
-        <v>9084</v>
+        <v>9094</v>
       </c>
       <c r="D303" t="s">
         <v>5</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,13 +4634,13 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
       </c>
       <c r="C305" t="n">
-        <v>9189</v>
+        <v>9199</v>
       </c>
       <c r="D305" t="s">
         <v>5</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,13 +4662,13 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="C307" t="n">
-        <v>10101</v>
+        <v>10106</v>
       </c>
       <c r="D307" t="s">
         <v>5</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,13 +4690,13 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
       </c>
       <c r="C309" t="n">
-        <v>6393</v>
+        <v>6394</v>
       </c>
       <c r="D309" t="s">
         <v>5</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,13 +4718,13 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
       </c>
       <c r="C311" t="n">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="D311" t="s">
         <v>5</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,13 +4774,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="C315" t="n">
-        <v>14852</v>
+        <v>14854</v>
       </c>
       <c r="D315" t="s">
         <v>5</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,13 +4802,13 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="C317" t="n">
-        <v>11116</v>
+        <v>11117</v>
       </c>
       <c r="D317" t="s">
         <v>5</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,13 +4830,13 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
       </c>
       <c r="C319" t="n">
-        <v>10763</v>
+        <v>10764</v>
       </c>
       <c r="D319" t="s">
         <v>5</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,13 +4858,13 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
       </c>
       <c r="C321" t="n">
-        <v>10269</v>
+        <v>10271</v>
       </c>
       <c r="D321" t="s">
         <v>5</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,13 +4886,13 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
       </c>
       <c r="C323" t="n">
-        <v>6151</v>
+        <v>6155</v>
       </c>
       <c r="D323" t="s">
         <v>5</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,13 +5166,13 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
       </c>
       <c r="C343" t="n">
-        <v>8636</v>
+        <v>8637</v>
       </c>
       <c r="D343" t="s">
         <v>5</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,13 +5250,13 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
       </c>
       <c r="C349" t="n">
-        <v>6586</v>
+        <v>6587</v>
       </c>
       <c r="D349" t="s">
         <v>5</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,13 +5334,13 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
       </c>
       <c r="C355" t="n">
-        <v>5563</v>
+        <v>5562</v>
       </c>
       <c r="D355" t="s">
         <v>5</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,13 +5698,13 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
       </c>
       <c r="C381" t="n">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="D381" t="s">
         <v>5</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,13 +5866,13 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
       </c>
       <c r="C393" t="n">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="D393" t="s">
         <v>5</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,13 +5922,13 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
       </c>
       <c r="C397" t="n">
-        <v>5800</v>
+        <v>5802</v>
       </c>
       <c r="D397" t="s">
         <v>5</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="C399" t="n">
-        <v>7070</v>
+        <v>7073</v>
       </c>
       <c r="D399" t="s">
         <v>5</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
@@ -5978,13 +5978,13 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C401" t="n">
-        <v>6426</v>
+        <v>6428</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
@@ -6006,13 +6006,13 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C403" t="n">
-        <v>7064</v>
+        <v>7065</v>
       </c>
       <c r="D403" t="s">
         <v>5</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
@@ -6034,13 +6034,13 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C405" t="n">
-        <v>7043</v>
+        <v>7046</v>
       </c>
       <c r="D405" t="s">
         <v>5</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
@@ -6062,13 +6062,13 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C407" t="n">
-        <v>4650</v>
+        <v>4653</v>
       </c>
       <c r="D407" t="s">
         <v>5</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="C409" t="n">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="D409" t="s">
         <v>5</v>
@@ -6104,13 +6104,13 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C410" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D410" t="s">
         <v>4</v>
@@ -6118,13 +6118,13 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C411" t="n">
-        <v>7929</v>
+        <v>7966</v>
       </c>
       <c r="D411" t="s">
         <v>5</v>
@@ -6132,13 +6132,13 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C412" t="n">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="D412" t="s">
         <v>4</v>
@@ -6146,13 +6146,13 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C413" t="n">
-        <v>9910</v>
+        <v>10218</v>
       </c>
       <c r="D413" t="s">
         <v>5</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
@@ -6174,13 +6174,13 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
       </c>
       <c r="C415" t="n">
-        <v>9092</v>
+        <v>9132</v>
       </c>
       <c r="D415" t="s">
         <v>5</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
@@ -6202,13 +6202,13 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="C417" t="n">
-        <v>9646</v>
+        <v>9664</v>
       </c>
       <c r="D417" t="s">
         <v>5</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44064</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44064</v>
       </c>
       <c r="C419" t="n">
-        <v>9487</v>
+        <v>9496</v>
       </c>
       <c r="D419" t="s">
         <v>5</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44065</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44065</v>
@@ -6272,13 +6272,13 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44066</v>
       </c>
       <c r="C422" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D422" t="s">
         <v>4</v>
@@ -6286,13 +6286,13 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44066</v>
       </c>
       <c r="C423" t="n">
-        <v>3062</v>
+        <v>3107</v>
       </c>
       <c r="D423" t="s">
         <v>5</v>
@@ -6300,13 +6300,13 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="C424" t="n">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="D424" t="s">
         <v>4</v>
@@ -6314,15 +6314,43 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44068.3228703704</v>
+        <v>44069.3418055556</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="C425" t="n">
-        <v>5493</v>
+        <v>9541</v>
       </c>
       <c r="D425" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>44069.3418055556</v>
+      </c>
+      <c r="B426" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="C426" t="n">
+        <v>321</v>
+      </c>
+      <c r="D426" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>44069.3418055556</v>
+      </c>
+      <c r="B427" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="C427" t="n">
+        <v>9432</v>
+      </c>
+      <c r="D427" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,13 +4018,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
       </c>
       <c r="C261" t="n">
-        <v>5231</v>
+        <v>5232</v>
       </c>
       <c r="D261" t="s">
         <v>5</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,13 +4774,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="C315" t="n">
-        <v>14854</v>
+        <v>14855</v>
       </c>
       <c r="D315" t="s">
         <v>5</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,13 +5334,13 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
       </c>
       <c r="C355" t="n">
-        <v>5562</v>
+        <v>5564</v>
       </c>
       <c r="D355" t="s">
         <v>5</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,13 +5362,13 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
       </c>
       <c r="C357" t="n">
-        <v>6679</v>
+        <v>6682</v>
       </c>
       <c r="D357" t="s">
         <v>5</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,13 +5418,13 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
       </c>
       <c r="C361" t="n">
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="D361" t="s">
         <v>5</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,13 +5446,13 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
       </c>
       <c r="C363" t="n">
-        <v>5362</v>
+        <v>5363</v>
       </c>
       <c r="D363" t="s">
         <v>5</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
       </c>
       <c r="C369" t="n">
-        <v>5335</v>
+        <v>5340</v>
       </c>
       <c r="D369" t="s">
         <v>5</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,13 +5768,13 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="C386" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D386" t="s">
         <v>4</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
@@ -5852,13 +5852,13 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
       </c>
       <c r="C392" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D392" t="s">
         <v>4</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
       </c>
       <c r="C394" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D394" t="s">
         <v>4</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,13 +5936,13 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="C398" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D398" t="s">
         <v>4</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
@@ -5964,13 +5964,13 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C400" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D400" t="s">
         <v>4</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
@@ -5992,13 +5992,13 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C402" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D402" t="s">
         <v>4</v>
@@ -6006,13 +6006,13 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C403" t="n">
-        <v>7065</v>
+        <v>7066</v>
       </c>
       <c r="D403" t="s">
         <v>5</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C406" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
@@ -6076,13 +6076,13 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="C408" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D408" t="s">
         <v>4</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="C409" t="n">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="D409" t="s">
         <v>5</v>
@@ -6104,13 +6104,13 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C410" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D410" t="s">
         <v>4</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
@@ -6160,13 +6160,13 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
       </c>
       <c r="C414" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D414" t="s">
         <v>4</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
@@ -6188,13 +6188,13 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="C416" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D416" t="s">
         <v>4</v>
@@ -6202,13 +6202,13 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="C417" t="n">
-        <v>9664</v>
+        <v>9710</v>
       </c>
       <c r="D417" t="s">
         <v>5</v>
@@ -6216,13 +6216,13 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44064</v>
       </c>
       <c r="C418" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D418" t="s">
         <v>4</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44064</v>
       </c>
       <c r="C419" t="n">
-        <v>9496</v>
+        <v>9539</v>
       </c>
       <c r="D419" t="s">
         <v>5</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44065</v>
@@ -6258,13 +6258,13 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44065</v>
       </c>
       <c r="C421" t="n">
-        <v>5817</v>
+        <v>5837</v>
       </c>
       <c r="D421" t="s">
         <v>5</v>
@@ -6272,13 +6272,13 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44066</v>
       </c>
       <c r="C422" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D422" t="s">
         <v>4</v>
@@ -6286,13 +6286,13 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44066</v>
       </c>
       <c r="C423" t="n">
-        <v>3107</v>
+        <v>3123</v>
       </c>
       <c r="D423" t="s">
         <v>5</v>
@@ -6300,13 +6300,13 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="C424" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D424" t="s">
         <v>4</v>
@@ -6314,13 +6314,13 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="C425" t="n">
-        <v>9541</v>
+        <v>9665</v>
       </c>
       <c r="D425" t="s">
         <v>5</v>
@@ -6328,13 +6328,13 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44068</v>
       </c>
       <c r="C426" t="n">
-        <v>321</v>
+        <v>402</v>
       </c>
       <c r="D426" t="s">
         <v>4</v>
@@ -6342,15 +6342,71 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44069.3418055556</v>
+        <v>44071.3235532407</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44068</v>
       </c>
       <c r="C427" t="n">
-        <v>9432</v>
+        <v>12672</v>
       </c>
       <c r="D427" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>44071.3235532407</v>
+      </c>
+      <c r="B428" s="1" t="n">
+        <v>44069</v>
+      </c>
+      <c r="C428" t="n">
+        <v>410</v>
+      </c>
+      <c r="D428" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>44071.3235532407</v>
+      </c>
+      <c r="B429" s="1" t="n">
+        <v>44069</v>
+      </c>
+      <c r="C429" t="n">
+        <v>12038</v>
+      </c>
+      <c r="D429" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>44071.3235532407</v>
+      </c>
+      <c r="B430" s="1" t="n">
+        <v>44070</v>
+      </c>
+      <c r="C430" t="n">
+        <v>289</v>
+      </c>
+      <c r="D430" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>44071.3235532407</v>
+      </c>
+      <c r="B431" s="1" t="n">
+        <v>44070</v>
+      </c>
+      <c r="C431" t="n">
+        <v>9148</v>
+      </c>
+      <c r="D431" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,13 +4914,13 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
       </c>
       <c r="C325" t="n">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="D325" t="s">
         <v>5</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,13 +5446,13 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
       </c>
       <c r="C363" t="n">
-        <v>5363</v>
+        <v>5364</v>
       </c>
       <c r="D363" t="s">
         <v>5</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,13 +5558,13 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
       </c>
       <c r="C371" t="n">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="D371" t="s">
         <v>5</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,13 +5656,13 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
       </c>
       <c r="C378" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D378" t="s">
         <v>4</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,13 +5726,13 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
       </c>
       <c r="C383" t="n">
-        <v>6043</v>
+        <v>6044</v>
       </c>
       <c r="D383" t="s">
         <v>5</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="C409" t="n">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="D409" t="s">
         <v>5</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
@@ -6132,13 +6132,13 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C412" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D412" t="s">
         <v>4</v>
@@ -6146,13 +6146,13 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C413" t="n">
-        <v>10218</v>
+        <v>10223</v>
       </c>
       <c r="D413" t="s">
         <v>5</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
@@ -6174,13 +6174,13 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
       </c>
       <c r="C415" t="n">
-        <v>9132</v>
+        <v>9134</v>
       </c>
       <c r="D415" t="s">
         <v>5</v>
@@ -6188,13 +6188,13 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="C416" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D416" t="s">
         <v>4</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44064</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44064</v>
       </c>
       <c r="C419" t="n">
-        <v>9539</v>
+        <v>9540</v>
       </c>
       <c r="D419" t="s">
         <v>5</v>
@@ -6244,13 +6244,13 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44065</v>
       </c>
       <c r="C420" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D420" t="s">
         <v>4</v>
@@ -6258,13 +6258,13 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44065</v>
       </c>
       <c r="C421" t="n">
-        <v>5837</v>
+        <v>5838</v>
       </c>
       <c r="D421" t="s">
         <v>5</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44066</v>
@@ -6286,13 +6286,13 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44066</v>
       </c>
       <c r="C423" t="n">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="D423" t="s">
         <v>5</v>
@@ -6300,13 +6300,13 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="C424" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D424" t="s">
         <v>4</v>
@@ -6314,13 +6314,13 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="C425" t="n">
-        <v>9665</v>
+        <v>9666</v>
       </c>
       <c r="D425" t="s">
         <v>5</v>
@@ -6328,13 +6328,13 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44068</v>
       </c>
       <c r="C426" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D426" t="s">
         <v>4</v>
@@ -6342,13 +6342,13 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44068</v>
       </c>
       <c r="C427" t="n">
-        <v>12672</v>
+        <v>12699</v>
       </c>
       <c r="D427" t="s">
         <v>5</v>
@@ -6356,13 +6356,13 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44069</v>
       </c>
       <c r="C428" t="n">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="D428" t="s">
         <v>4</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44069</v>
       </c>
       <c r="C429" t="n">
-        <v>12038</v>
+        <v>12365</v>
       </c>
       <c r="D429" t="s">
         <v>5</v>
@@ -6384,13 +6384,13 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44070</v>
       </c>
       <c r="C430" t="n">
-        <v>289</v>
+        <v>412</v>
       </c>
       <c r="D430" t="s">
         <v>4</v>
@@ -6398,15 +6398,155 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44071.3235532407</v>
+        <v>44076.312974537</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44070</v>
       </c>
       <c r="C431" t="n">
-        <v>9148</v>
+        <v>12654</v>
       </c>
       <c r="D431" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>44076.312974537</v>
+      </c>
+      <c r="B432" s="1" t="n">
+        <v>44071</v>
+      </c>
+      <c r="C432" t="n">
+        <v>384</v>
+      </c>
+      <c r="D432" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>44076.312974537</v>
+      </c>
+      <c r="B433" s="1" t="n">
+        <v>44071</v>
+      </c>
+      <c r="C433" t="n">
+        <v>12112</v>
+      </c>
+      <c r="D433" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>44076.312974537</v>
+      </c>
+      <c r="B434" s="1" t="n">
+        <v>44072</v>
+      </c>
+      <c r="C434" t="n">
+        <v>316</v>
+      </c>
+      <c r="D434" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>44076.312974537</v>
+      </c>
+      <c r="B435" s="1" t="n">
+        <v>44072</v>
+      </c>
+      <c r="C435" t="n">
+        <v>8019</v>
+      </c>
+      <c r="D435" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>44076.312974537</v>
+      </c>
+      <c r="B436" s="1" t="n">
+        <v>44073</v>
+      </c>
+      <c r="C436" t="n">
+        <v>138</v>
+      </c>
+      <c r="D436" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>44076.312974537</v>
+      </c>
+      <c r="B437" s="1" t="n">
+        <v>44073</v>
+      </c>
+      <c r="C437" t="n">
+        <v>3642</v>
+      </c>
+      <c r="D437" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>44076.312974537</v>
+      </c>
+      <c r="B438" s="1" t="n">
+        <v>44074</v>
+      </c>
+      <c r="C438" t="n">
+        <v>309</v>
+      </c>
+      <c r="D438" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>44076.312974537</v>
+      </c>
+      <c r="B439" s="1" t="n">
+        <v>44074</v>
+      </c>
+      <c r="C439" t="n">
+        <v>10829</v>
+      </c>
+      <c r="D439" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>44076.312974537</v>
+      </c>
+      <c r="B440" s="1" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C440" t="n">
+        <v>313</v>
+      </c>
+      <c r="D440" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>44076.312974537</v>
+      </c>
+      <c r="B441" s="1" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C441" t="n">
+        <v>11273</v>
+      </c>
+      <c r="D441" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,13 +5488,13 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
       </c>
       <c r="C366" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D366" t="s">
         <v>4</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="C399" t="n">
-        <v>7073</v>
+        <v>7075</v>
       </c>
       <c r="D399" t="s">
         <v>5</v>
@@ -5964,13 +5964,13 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C400" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D400" t="s">
         <v>4</v>
@@ -5978,13 +5978,13 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C401" t="n">
-        <v>6428</v>
+        <v>6466</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
@@ -6174,13 +6174,13 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
       </c>
       <c r="C415" t="n">
-        <v>9134</v>
+        <v>9135</v>
       </c>
       <c r="D415" t="s">
         <v>5</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44064</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44064</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44065</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44065</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44066</v>
@@ -6286,13 +6286,13 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44066</v>
       </c>
       <c r="C423" t="n">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="D423" t="s">
         <v>5</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44067</v>
@@ -6314,13 +6314,13 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="C425" t="n">
-        <v>9666</v>
+        <v>9667</v>
       </c>
       <c r="D425" t="s">
         <v>5</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44068</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44068</v>
@@ -6356,13 +6356,13 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44069</v>
       </c>
       <c r="C428" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D428" t="s">
         <v>4</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44069</v>
       </c>
       <c r="C429" t="n">
-        <v>12365</v>
+        <v>12366</v>
       </c>
       <c r="D429" t="s">
         <v>5</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44070</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44070</v>
@@ -6412,13 +6412,13 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44071</v>
       </c>
       <c r="C432" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D432" t="s">
         <v>4</v>
@@ -6426,13 +6426,13 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44071</v>
       </c>
       <c r="C433" t="n">
-        <v>12112</v>
+        <v>12113</v>
       </c>
       <c r="D433" t="s">
         <v>5</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44072</v>
@@ -6454,13 +6454,13 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44072</v>
       </c>
       <c r="C435" t="n">
-        <v>8019</v>
+        <v>8020</v>
       </c>
       <c r="D435" t="s">
         <v>5</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44073</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44073</v>
@@ -6496,13 +6496,13 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C438" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D438" t="s">
         <v>4</v>
@@ -6510,13 +6510,13 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C439" t="n">
-        <v>10829</v>
+        <v>10966</v>
       </c>
       <c r="D439" t="s">
         <v>5</v>
@@ -6524,13 +6524,13 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="C440" t="n">
-        <v>313</v>
+        <v>429</v>
       </c>
       <c r="D440" t="s">
         <v>4</v>
@@ -6538,15 +6538,71 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44076.312974537</v>
+        <v>44078.3164467593</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="C441" t="n">
-        <v>11273</v>
+        <v>15913</v>
       </c>
       <c r="D441" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>44078.3164467593</v>
+      </c>
+      <c r="B442" s="1" t="n">
+        <v>44076</v>
+      </c>
+      <c r="C442" t="n">
+        <v>424</v>
+      </c>
+      <c r="D442" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>44078.3164467593</v>
+      </c>
+      <c r="B443" s="1" t="n">
+        <v>44076</v>
+      </c>
+      <c r="C443" t="n">
+        <v>15345</v>
+      </c>
+      <c r="D443" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>44078.3164467593</v>
+      </c>
+      <c r="B444" s="1" t="n">
+        <v>44077</v>
+      </c>
+      <c r="C444" t="n">
+        <v>312</v>
+      </c>
+      <c r="D444" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>44078.3164467593</v>
+      </c>
+      <c r="B445" s="1" t="n">
+        <v>44077</v>
+      </c>
+      <c r="C445" t="n">
+        <v>10149</v>
+      </c>
+      <c r="D445" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,13 +5754,13 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
       </c>
       <c r="C385" t="n">
-        <v>7110</v>
+        <v>7111</v>
       </c>
       <c r="D385" t="s">
         <v>5</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44064</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44064</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44065</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44065</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44066</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44066</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44067</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44067</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44068</v>
@@ -6342,13 +6342,13 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44068</v>
       </c>
       <c r="C427" t="n">
-        <v>12699</v>
+        <v>12700</v>
       </c>
       <c r="D427" t="s">
         <v>5</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44069</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44069</v>
       </c>
       <c r="C429" t="n">
-        <v>12366</v>
+        <v>12367</v>
       </c>
       <c r="D429" t="s">
         <v>5</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44070</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44070</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44071</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44071</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44072</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44072</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44073</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44073</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44074</v>
@@ -6510,13 +6510,13 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C439" t="n">
-        <v>10966</v>
+        <v>10967</v>
       </c>
       <c r="D439" t="s">
         <v>5</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44075</v>
@@ -6538,13 +6538,13 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="C441" t="n">
-        <v>15913</v>
+        <v>15953</v>
       </c>
       <c r="D441" t="s">
         <v>5</v>
@@ -6552,13 +6552,13 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B442" s="1" t="n">
         <v>44076</v>
       </c>
       <c r="C442" t="n">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D442" t="s">
         <v>4</v>
@@ -6566,13 +6566,13 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B443" s="1" t="n">
         <v>44076</v>
       </c>
       <c r="C443" t="n">
-        <v>15345</v>
+        <v>15612</v>
       </c>
       <c r="D443" t="s">
         <v>5</v>
@@ -6580,13 +6580,13 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B444" s="1" t="n">
         <v>44077</v>
       </c>
       <c r="C444" t="n">
-        <v>312</v>
+        <v>464</v>
       </c>
       <c r="D444" t="s">
         <v>4</v>
@@ -6594,15 +6594,71 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44078.3164467593</v>
+        <v>44080.3595833333</v>
       </c>
       <c r="B445" s="1" t="n">
         <v>44077</v>
       </c>
       <c r="C445" t="n">
-        <v>10149</v>
+        <v>15041</v>
       </c>
       <c r="D445" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>44080.3595833333</v>
+      </c>
+      <c r="B446" s="1" t="n">
+        <v>44078</v>
+      </c>
+      <c r="C446" t="n">
+        <v>421</v>
+      </c>
+      <c r="D446" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>44080.3595833333</v>
+      </c>
+      <c r="B447" s="1" t="n">
+        <v>44078</v>
+      </c>
+      <c r="C447" t="n">
+        <v>13705</v>
+      </c>
+      <c r="D447" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>44080.3595833333</v>
+      </c>
+      <c r="B448" s="1" t="n">
+        <v>44079</v>
+      </c>
+      <c r="C448" t="n">
+        <v>369</v>
+      </c>
+      <c r="D448" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>44080.3595833333</v>
+      </c>
+      <c r="B449" s="1" t="n">
+        <v>44079</v>
+      </c>
+      <c r="C449" t="n">
+        <v>7773</v>
+      </c>
+      <c r="D449" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44064</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44064</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44065</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44065</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44066</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44066</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44067</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44067</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44068</v>
@@ -6342,13 +6342,13 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44068</v>
       </c>
       <c r="C427" t="n">
-        <v>12700</v>
+        <v>12702</v>
       </c>
       <c r="D427" t="s">
         <v>5</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44069</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44069</v>
       </c>
       <c r="C429" t="n">
-        <v>12367</v>
+        <v>12368</v>
       </c>
       <c r="D429" t="s">
         <v>5</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44070</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44070</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44071</v>
@@ -6426,13 +6426,13 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44071</v>
       </c>
       <c r="C433" t="n">
-        <v>12113</v>
+        <v>12114</v>
       </c>
       <c r="D433" t="s">
         <v>5</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44072</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44072</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44073</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44073</v>
@@ -6496,13 +6496,13 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C438" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D438" t="s">
         <v>4</v>
@@ -6510,13 +6510,13 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C439" t="n">
-        <v>10967</v>
+        <v>11012</v>
       </c>
       <c r="D439" t="s">
         <v>5</v>
@@ -6524,13 +6524,13 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="C440" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D440" t="s">
         <v>4</v>
@@ -6538,13 +6538,13 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="C441" t="n">
-        <v>15953</v>
+        <v>15959</v>
       </c>
       <c r="D441" t="s">
         <v>5</v>
@@ -6552,13 +6552,13 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B442" s="1" t="n">
         <v>44076</v>
       </c>
       <c r="C442" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D442" t="s">
         <v>4</v>
@@ -6566,13 +6566,13 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B443" s="1" t="n">
         <v>44076</v>
       </c>
       <c r="C443" t="n">
-        <v>15612</v>
+        <v>15614</v>
       </c>
       <c r="D443" t="s">
         <v>5</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B444" s="1" t="n">
         <v>44077</v>
@@ -6594,13 +6594,13 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B445" s="1" t="n">
         <v>44077</v>
       </c>
       <c r="C445" t="n">
-        <v>15041</v>
+        <v>15061</v>
       </c>
       <c r="D445" t="s">
         <v>5</v>
@@ -6608,13 +6608,13 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B446" s="1" t="n">
         <v>44078</v>
       </c>
       <c r="C446" t="n">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D446" t="s">
         <v>4</v>
@@ -6622,13 +6622,13 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B447" s="1" t="n">
         <v>44078</v>
       </c>
       <c r="C447" t="n">
-        <v>13705</v>
+        <v>14047</v>
       </c>
       <c r="D447" t="s">
         <v>5</v>
@@ -6636,13 +6636,13 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B448" s="1" t="n">
         <v>44079</v>
       </c>
       <c r="C448" t="n">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="D448" t="s">
         <v>4</v>
@@ -6650,15 +6650,71 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44080.3595833333</v>
+        <v>44082.3145138889</v>
       </c>
       <c r="B449" s="1" t="n">
         <v>44079</v>
       </c>
       <c r="C449" t="n">
-        <v>7773</v>
+        <v>9041</v>
       </c>
       <c r="D449" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>44082.3145138889</v>
+      </c>
+      <c r="B450" s="1" t="n">
+        <v>44080</v>
+      </c>
+      <c r="C450" t="n">
+        <v>195</v>
+      </c>
+      <c r="D450" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>44082.3145138889</v>
+      </c>
+      <c r="B451" s="1" t="n">
+        <v>44080</v>
+      </c>
+      <c r="C451" t="n">
+        <v>4037</v>
+      </c>
+      <c r="D451" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>44082.3145138889</v>
+      </c>
+      <c r="B452" s="1" t="n">
+        <v>44081</v>
+      </c>
+      <c r="C452" t="n">
+        <v>228</v>
+      </c>
+      <c r="D452" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>44082.3145138889</v>
+      </c>
+      <c r="B453" s="1" t="n">
+        <v>44081</v>
+      </c>
+      <c r="C453" t="n">
+        <v>7212</v>
+      </c>
+      <c r="D453" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/original/labtests.xlsx
+++ b/data/original/labtests.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
       </c>
       <c r="C55" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
       </c>
       <c r="C63" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,13 +1330,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
       </c>
       <c r="C69" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,13 +1358,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
       </c>
       <c r="C71" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,13 +1386,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
       </c>
       <c r="C73" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,13 +1876,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="C108" t="n">
-        <v>1410</v>
+        <v>1346</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,13 +1904,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="C110" t="n">
-        <v>1312</v>
+        <v>1240</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="C112" t="n">
-        <v>1169</v>
+        <v>1133</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="C114" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,13 +2016,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="C118" t="n">
-        <v>1530</v>
+        <v>1514</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,13 +2044,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="C120" t="n">
-        <v>1212</v>
+        <v>1183</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="C122" t="n">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="C124" t="n">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
       </c>
       <c r="C126" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,13 +2156,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
       </c>
       <c r="C128" t="n">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,13 +2184,13 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
       </c>
       <c r="C130" t="n">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
       </c>
       <c r="C132" t="n">
-        <v>1421</v>
+        <v>1382</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,13 +2240,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
       </c>
       <c r="C134" t="n">
-        <v>1171</v>
+        <v>1126</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="C136" t="n">
-        <v>1125</v>
+        <v>1063</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,13 +2296,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
       </c>
       <c r="C138" t="n">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
       </c>
       <c r="C144" t="n">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,13 +2408,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="C146" t="n">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
       </c>
       <c r="C148" t="n">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,13 +2464,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
       </c>
       <c r="C150" t="n">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,13 +2492,13 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
       </c>
       <c r="C152" t="n">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,13 +2520,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
       </c>
       <c r="C154" t="n">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,13 +2548,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
       </c>
       <c r="C156" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,13 +2576,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
       </c>
       <c r="C158" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,13 +2604,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
       </c>
       <c r="C160" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,13 +2632,13 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
       </c>
       <c r="C162" t="n">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
       </c>
       <c r="C164" t="n">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,13 +2688,13 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
       </c>
       <c r="C166" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,13 +2716,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
       </c>
       <c r="C168" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
       </c>
       <c r="C172" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
       </c>
       <c r="C174" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,13 +2828,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
       </c>
       <c r="C176" t="n">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,13 +2856,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
       </c>
       <c r="C178" t="n">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="D178" t="s">
         <v>4</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,13 +2884,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="C180" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
       </c>
       <c r="C182" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D182" t="s">
         <v>4</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,13 +2940,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
       </c>
       <c r="C184" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,13 +2968,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C186" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,13 +2996,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C188" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,13 +3052,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C192" t="n">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="C194" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,13 +3136,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
       </c>
       <c r="C198" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,13 +3192,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="C202" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D202" t="s">
         <v>4</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,13 +3220,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
       </c>
       <c r="C204" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D204" t="s">
         <v>4</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,13 +3276,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
       </c>
       <c r="C208" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D208" t="s">
         <v>4</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,13 +3304,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
       </c>
       <c r="C210" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D210" t="s">
         <v>4</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,13 +3332,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="C212" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D212" t="s">
         <v>4</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,13 +3360,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
       </c>
       <c r="C214" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D214" t="s">
         <v>4</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,13 +3388,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
       </c>
       <c r="C216" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,13 +3416,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
       </c>
       <c r="C218" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D218" t="s">
         <v>4</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,13 +3472,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="C222" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D222" t="s">
         <v>4</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,13 +3528,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
       </c>
       <c r="C226" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D226" t="s">
         <v>4</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,13 +3556,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
       </c>
       <c r="C228" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D228" t="s">
         <v>4</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
       </c>
       <c r="C229" t="n">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="D229" t="s">
         <v>5</v>
@@ -3584,13 +3584,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="C230" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D230" t="s">
         <v>4</v>
@@ -3598,13 +3598,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="C231" t="n">
-        <v>5925</v>
+        <v>5924</v>
       </c>
       <c r="D231" t="s">
         <v>5</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
       </c>
       <c r="C239" t="n">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D239" t="s">
         <v>5</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,13 +3780,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
       </c>
       <c r="C244" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D244" t="s">
         <v>4</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,13 +3822,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
       </c>
       <c r="C247" t="n">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="D247" t="s">
         <v>5</v>
@@ -3836,13 +3836,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
       </c>
       <c r="C248" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D248" t="s">
         <v>4</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,13 +3962,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
       </c>
       <c r="C257" t="n">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D257" t="s">
         <v>5</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,13 +4046,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
       </c>
       <c r="C263" t="n">
-        <v>5188</v>
+        <v>5187</v>
       </c>
       <c r="D263" t="s">
         <v>5</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,13 +4116,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
       </c>
       <c r="C268" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D268" t="s">
         <v>4</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,13 +4144,13 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
       </c>
       <c r="C270" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D270" t="s">
         <v>4</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,13 +4228,13 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
       </c>
       <c r="C276" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D276" t="s">
         <v>4</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,13 +4312,13 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
       </c>
       <c r="C282" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D282" t="s">
         <v>4</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,13 +4354,13 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
       </c>
       <c r="C285" t="n">
-        <v>6480</v>
+        <v>6479</v>
       </c>
       <c r="D285" t="s">
         <v>5</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,13 +4396,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
       </c>
       <c r="C288" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D288" t="s">
         <v>4</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,13 +4662,13 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="C307" t="n">
-        <v>10106</v>
+        <v>10104</v>
       </c>
       <c r="D307" t="s">
         <v>5</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,13 +4760,13 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="C314" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D314" t="s">
         <v>4</v>
@@ -4774,13 +4774,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="C315" t="n">
-        <v>14855</v>
+        <v>14854</v>
       </c>
       <c r="D315" t="s">
         <v>5</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,13 +4802,13 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="C317" t="n">
-        <v>11117</v>
+        <v>11116</v>
       </c>
       <c r="D317" t="s">
         <v>5</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,13 +4844,13 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
       </c>
       <c r="C320" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D320" t="s">
         <v>4</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,13 +4900,13 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
       </c>
       <c r="C324" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D324" t="s">
         <v>4</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,13 +4984,13 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
       </c>
       <c r="C330" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D330" t="s">
         <v>4</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,13 +5096,13 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
       </c>
       <c r="C338" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D338" t="s">
         <v>4</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,13 +5124,13 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
       </c>
       <c r="C340" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D340" t="s">
         <v>4</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,13 +5180,13 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
       </c>
       <c r="C344" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D344" t="s">
         <v>4</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,13 +5208,13 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
       </c>
       <c r="C346" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D346" t="s">
         <v>4</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,13 +5236,13 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
       </c>
       <c r="C348" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D348" t="s">
         <v>4</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,13 +5264,13 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
       </c>
       <c r="C350" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D350" t="s">
         <v>4</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,13 +5320,13 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
       </c>
       <c r="C354" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D354" t="s">
         <v>4</v>
@@ -5334,13 +5334,13 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
       </c>
       <c r="C355" t="n">
-        <v>5564</v>
+        <v>5563</v>
       </c>
       <c r="D355" t="s">
         <v>5</v>
@@ -5348,13 +5348,13 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
       </c>
       <c r="C356" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D356" t="s">
         <v>4</v>
@@ -5362,13 +5362,13 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
       </c>
       <c r="C357" t="n">
-        <v>6682</v>
+        <v>6683</v>
       </c>
       <c r="D357" t="s">
         <v>5</v>
@@ -5376,13 +5376,13 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
       </c>
       <c r="C358" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D358" t="s">
         <v>4</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,13 +5404,13 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
       </c>
       <c r="C360" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D360" t="s">
         <v>4</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,13 +5432,13 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
       </c>
       <c r="C362" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D362" t="s">
         <v>4</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,13 +5474,13 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
       </c>
       <c r="C365" t="n">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="D365" t="s">
         <v>5</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,13 +5516,13 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
       </c>
       <c r="C368" t="n">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D368" t="s">
         <v>4</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,13 +5558,13 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
       </c>
       <c r="C371" t="n">
-        <v>7143</v>
+        <v>7142</v>
       </c>
       <c r="D371" t="s">
         <v>5</v>
@@ -5572,13 +5572,13 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
       </c>
       <c r="C372" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D372" t="s">
         <v>4</v>
@@ -5586,13 +5586,13 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
       </c>
       <c r="C373" t="n">
-        <v>6577</v>
+        <v>6576</v>
       </c>
       <c r="D373" t="s">
         <v>5</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,13 +5614,13 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
       </c>
       <c r="C375" t="n">
-        <v>6844</v>
+        <v>6843</v>
       </c>
       <c r="D375" t="s">
         <v>5</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,13 +5656,13 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
       </c>
       <c r="C378" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D378" t="s">
         <v>4</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,13 +5712,13 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
       </c>
       <c r="C382" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D382" t="s">
         <v>4</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,13 +5740,13 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
       </c>
       <c r="C384" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D384" t="s">
         <v>4</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,13 +5768,13 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="C386" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D386" t="s">
         <v>4</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,13 +5796,13 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="C388" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D388" t="s">
         <v>4</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,13 +5824,13 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
       </c>
       <c r="C390" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D390" t="s">
         <v>4</v>
@@ -5838,13 +5838,13 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
       </c>
       <c r="C391" t="n">
-        <v>5958</v>
+        <v>5957</v>
       </c>
       <c r="D391" t="s">
         <v>5</v>
@@ -5852,13 +5852,13 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
       </c>
       <c r="C392" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D392" t="s">
         <v>4</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
       </c>
       <c r="C394" t="n">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D394" t="s">
         <v>4</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,13 +5908,13 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
       </c>
       <c r="C396" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D396" t="s">
         <v>4</v>
@@ -5922,13 +5922,13 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
       </c>
       <c r="C397" t="n">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="D397" t="s">
         <v>5</v>
@@ -5936,13 +5936,13 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="C398" t="n">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D398" t="s">
         <v>4</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
@@ -5964,13 +5964,13 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
       </c>
       <c r="C400" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D400" t="s">
         <v>4</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
@@ -5992,13 +5992,13 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C402" t="n">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D402" t="s">
         <v>4</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
@@ -6020,13 +6020,13 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C404" t="n">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D404" t="s">
         <v>4</v>
@@ -6034,13 +6034,13 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C405" t="n">
-        <v>7046</v>
+        <v>7049</v>
       </c>
       <c r="D405" t="s">
         <v>5</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C406" t="n">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
@@ -6062,13 +6062,13 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C407" t="n">
-        <v>4653</v>
+        <v>4657</v>
       </c>
       <c r="D407" t="s">
         <v>5</v>
@@ -6076,13 +6076,13 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="C408" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D408" t="s">
         <v>4</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="C409" t="n">
-        <v>2302</v>
+        <v>2313</v>
       </c>
       <c r="D409" t="s">
         <v>5</v>
@@ -6104,13 +6104,13 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C410" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D410" t="s">
         <v>4</v>
@@ -6118,13 +6118,13 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C411" t="n">
-        <v>7966</v>
+        <v>7969</v>
       </c>
       <c r="D411" t="s">
         <v>5</v>
@@ -6132,13 +6132,13 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C412" t="n">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D412" t="s">
         <v>4</v>
@@ -6146,13 +6146,13 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C413" t="n">
-        <v>10223</v>
+        <v>10233</v>
       </c>
       <c r="D413" t="s">
         <v>5</v>
@@ -6160,13 +6160,13 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
       </c>
       <c r="C414" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D414" t="s">
         <v>4</v>
@@ -6174,13 +6174,13 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
       </c>
       <c r="C415" t="n">
-        <v>9135</v>
+        <v>9143</v>
       </c>
       <c r="D415" t="s">
         <v>5</v>
@@ -6188,13 +6188,13 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="C416" t="n">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D416" t="s">
         <v>4</v>
@@ -6202,13 +6202,13 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="C417" t="n">
-        <v>9710</v>
+        <v>9738</v>
       </c>
       <c r="D417" t="s">
         <v>5</v>
@@ -6216,13 +6216,13 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44064</v>
       </c>
       <c r="C418" t="n">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D418" t="s">
         <v>4</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44064</v>
       </c>
       <c r="C419" t="n">
-        <v>9540</v>
+        <v>9613</v>
       </c>
       <c r="D419" t="s">
         <v>5</v>
@@ -6244,13 +6244,13 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44065</v>
       </c>
       <c r="C420" t="n">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D420" t="s">
         <v>4</v>
@@ -6258,13 +6258,13 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44065</v>
       </c>
       <c r="C421" t="n">
-        <v>5838</v>
+        <v>5886</v>
       </c>
       <c r="D421" t="s">
         <v>5</v>
@@ -6272,13 +6272,13 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44066</v>
       </c>
       <c r="C422" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D422" t="s">
         <v>4</v>
@@ -6286,13 +6286,13 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44066</v>
       </c>
       <c r="C423" t="n">
-        <v>3124</v>
+        <v>3152</v>
       </c>
       <c r="D423" t="s">
         <v>5</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44067</v>
@@ -6314,13 +6314,13 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="C425" t="n">
-        <v>9667</v>
+        <v>9717</v>
       </c>
       <c r="D425" t="s">
         <v>5</v>
@@ -6328,13 +6328,13 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44068</v>
       </c>
       <c r="C426" t="n">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D426" t="s">
         <v>4</v>
@@ -6342,13 +6342,13 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44068</v>
       </c>
       <c r="C427" t="n">
-        <v>12702</v>
+        <v>12803</v>
       </c>
       <c r="D427" t="s">
         <v>5</v>
@@ -6356,13 +6356,13 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44069</v>
       </c>
       <c r="C428" t="n">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D428" t="s">
         <v>4</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44069</v>
       </c>
       <c r="C429" t="n">
-        <v>12368</v>
+        <v>12458</v>
       </c>
       <c r="D429" t="s">
         <v>5</v>
@@ -6384,13 +6384,13 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44070</v>
       </c>
       <c r="C430" t="n">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D430" t="s">
         <v>4</v>
@@ -6398,13 +6398,13 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44070</v>
       </c>
       <c r="C431" t="n">
-        <v>12654</v>
+        <v>12746</v>
       </c>
       <c r="D431" t="s">
         <v>5</v>
@@ -6412,13 +6412,13 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44071</v>
       </c>
       <c r="C432" t="n">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D432" t="s">
         <v>4</v>
@@ -6426,13 +6426,13 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44071</v>
       </c>
       <c r="C433" t="n">
-        <v>12114</v>
+        <v>12193</v>
       </c>
       <c r="D433" t="s">
         <v>5</v>
@@ -6440,13 +6440,13 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44072</v>
       </c>
       <c r="C434" t="n">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D434" t="s">
         <v>4</v>
@@ -6454,13 +6454,13 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44072</v>
       </c>
       <c r="C435" t="n">
-        <v>8020</v>
+        <v>8091</v>
       </c>
       <c r="D435" t="s">
         <v>5</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44073</v>
@@ -6482,13 +6482,13 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44073</v>
       </c>
       <c r="C437" t="n">
-        <v>3642</v>
+        <v>3723</v>
       </c>
       <c r="D437" t="s">
         <v>5</v>
@@ -6496,13 +6496,13 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C438" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D438" t="s">
         <v>4</v>
@@ -6510,13 +6510,13 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C439" t="n">
-        <v>11012</v>
+        <v>11100</v>
       </c>
       <c r="D439" t="s">
         <v>5</v>
@@ -6524,13 +6524,13 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="C440" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D440" t="s">
         <v>4</v>
@@ -6538,13 +6538,13 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="C441" t="n">
-        <v>15959</v>
+        <v>16021</v>
       </c>
       <c r="D441" t="s">
         <v>5</v>
@@ -6552,13 +6552,13 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B442" s="1" t="n">
         <v>44076</v>
       </c>
       <c r="C442" t="n">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D442" t="s">
         <v>4</v>
@@ -6566,13 +6566,13 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B443" s="1" t="n">
         <v>44076</v>
       </c>
       <c r="C443" t="n">
-        <v>15614</v>
+        <v>15626</v>
       </c>
       <c r="D443" t="s">
         <v>5</v>
@@ -6580,13 +6580,13 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B444" s="1" t="n">
         <v>44077</v>
       </c>
       <c r="C444" t="n">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D444" t="s">
         <v>4</v>
@@ -6594,13 +6594,13 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B445" s="1" t="n">
         <v>44077</v>
       </c>
       <c r="C445" t="n">
-        <v>15061</v>
+        <v>15065</v>
       </c>
       <c r="D445" t="s">
         <v>5</v>
@@ -6608,13 +6608,13 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B446" s="1" t="n">
         <v>44078</v>
       </c>
       <c r="C446" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D446" t="s">
         <v>4</v>
@@ -6622,13 +6622,13 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B447" s="1" t="n">
         <v>44078</v>
       </c>
       <c r="C447" t="n">
-        <v>14047</v>
+        <v>14070</v>
       </c>
       <c r="D447" t="s">
         <v>5</v>
@@ -6636,13 +6636,13 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B448" s="1" t="n">
         <v>44079</v>
       </c>
       <c r="C448" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D448" t="s">
         <v>4</v>
@@ -6650,13 +6650,13 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B449" s="1" t="n">
         <v>44079</v>
       </c>
       <c r="C449" t="n">
-        <v>9041</v>
+        <v>9088</v>
       </c>
       <c r="D449" t="s">
         <v>5</v>
@@ -6664,13 +6664,13 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B450" s="1" t="n">
         <v>44080</v>
       </c>
       <c r="C450" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D450" t="s">
         <v>4</v>
@@ -6678,13 +6678,13 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B451" s="1" t="n">
         <v>44080</v>
       </c>
       <c r="C451" t="n">
-        <v>4037</v>
+        <v>4143</v>
       </c>
       <c r="D451" t="s">
         <v>5</v>
@@ -6692,13 +6692,13 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B452" s="1" t="n">
         <v>44081</v>
       </c>
       <c r="C452" t="n">
-        <v>228</v>
+        <v>387</v>
       </c>
       <c r="D452" t="s">
         <v>4</v>
@@ -6706,15 +6706,1555 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>44082.3145138889</v>
+        <v>44137.3218402778</v>
       </c>
       <c r="B453" s="1" t="n">
         <v>44081</v>
       </c>
       <c r="C453" t="n">
-        <v>7212</v>
+        <v>13038</v>
       </c>
       <c r="D453" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B454" s="1" t="n">
+        <v>44082</v>
+      </c>
+      <c r="C454" t="n">
+        <v>493</v>
+      </c>
+      <c r="D454" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B455" s="1" t="n">
+        <v>44082</v>
+      </c>
+      <c r="C455" t="n">
+        <v>17063</v>
+      </c>
+      <c r="D455" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B456" s="1" t="n">
+        <v>44083</v>
+      </c>
+      <c r="C456" t="n">
+        <v>508</v>
+      </c>
+      <c r="D456" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B457" s="1" t="n">
+        <v>44083</v>
+      </c>
+      <c r="C457" t="n">
+        <v>15923</v>
+      </c>
+      <c r="D457" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B458" s="1" t="n">
+        <v>44084</v>
+      </c>
+      <c r="C458" t="n">
+        <v>590</v>
+      </c>
+      <c r="D458" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B459" s="1" t="n">
+        <v>44084</v>
+      </c>
+      <c r="C459" t="n">
+        <v>15120</v>
+      </c>
+      <c r="D459" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B460" s="1" t="n">
+        <v>44085</v>
+      </c>
+      <c r="C460" t="n">
+        <v>543</v>
+      </c>
+      <c r="D460" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B461" s="1" t="n">
+        <v>44085</v>
+      </c>
+      <c r="C461" t="n">
+        <v>13633</v>
+      </c>
+      <c r="D461" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B462" s="1" t="n">
+        <v>44086</v>
+      </c>
+      <c r="C462" t="n">
+        <v>470</v>
+      </c>
+      <c r="D462" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B463" s="1" t="n">
+        <v>44086</v>
+      </c>
+      <c r="C463" t="n">
+        <v>9384</v>
+      </c>
+      <c r="D463" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B464" s="1" t="n">
+        <v>44087</v>
+      </c>
+      <c r="C464" t="n">
+        <v>247</v>
+      </c>
+      <c r="D464" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B465" s="1" t="n">
+        <v>44087</v>
+      </c>
+      <c r="C465" t="n">
+        <v>3912</v>
+      </c>
+      <c r="D465" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B466" s="1" t="n">
+        <v>44088</v>
+      </c>
+      <c r="C466" t="n">
+        <v>457</v>
+      </c>
+      <c r="D466" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B467" s="1" t="n">
+        <v>44088</v>
+      </c>
+      <c r="C467" t="n">
+        <v>12388</v>
+      </c>
+      <c r="D467" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B468" s="1" t="n">
+        <v>44089</v>
+      </c>
+      <c r="C468" t="n">
+        <v>519</v>
+      </c>
+      <c r="D468" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B469" s="1" t="n">
+        <v>44089</v>
+      </c>
+      <c r="C469" t="n">
+        <v>16292</v>
+      </c>
+      <c r="D469" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B470" s="1" t="n">
+        <v>44090</v>
+      </c>
+      <c r="C470" t="n">
+        <v>582</v>
+      </c>
+      <c r="D470" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B471" s="1" t="n">
+        <v>44090</v>
+      </c>
+      <c r="C471" t="n">
+        <v>14845</v>
+      </c>
+      <c r="D471" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B472" s="1" t="n">
+        <v>44091</v>
+      </c>
+      <c r="C472" t="n">
+        <v>561</v>
+      </c>
+      <c r="D472" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B473" s="1" t="n">
+        <v>44091</v>
+      </c>
+      <c r="C473" t="n">
+        <v>14602</v>
+      </c>
+      <c r="D473" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B474" s="1" t="n">
+        <v>44092</v>
+      </c>
+      <c r="C474" t="n">
+        <v>471</v>
+      </c>
+      <c r="D474" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B475" s="1" t="n">
+        <v>44092</v>
+      </c>
+      <c r="C475" t="n">
+        <v>12896</v>
+      </c>
+      <c r="D475" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B476" s="1" t="n">
+        <v>44093</v>
+      </c>
+      <c r="C476" t="n">
+        <v>397</v>
+      </c>
+      <c r="D476" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B477" s="1" t="n">
+        <v>44093</v>
+      </c>
+      <c r="C477" t="n">
+        <v>7408</v>
+      </c>
+      <c r="D477" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B478" s="1" t="n">
+        <v>44094</v>
+      </c>
+      <c r="C478" t="n">
+        <v>219</v>
+      </c>
+      <c r="D478" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B479" s="1" t="n">
+        <v>44094</v>
+      </c>
+      <c r="C479" t="n">
+        <v>3360</v>
+      </c>
+      <c r="D479" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B480" s="1" t="n">
+        <v>44095</v>
+      </c>
+      <c r="C480" t="n">
+        <v>332</v>
+      </c>
+      <c r="D480" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B481" s="1" t="n">
+        <v>44095</v>
+      </c>
+      <c r="C481" t="n">
+        <v>10030</v>
+      </c>
+      <c r="D481" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B482" s="1" t="n">
+        <v>44096</v>
+      </c>
+      <c r="C482" t="n">
+        <v>519</v>
+      </c>
+      <c r="D482" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B483" s="1" t="n">
+        <v>44096</v>
+      </c>
+      <c r="C483" t="n">
+        <v>12900</v>
+      </c>
+      <c r="D483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B484" s="1" t="n">
+        <v>44097</v>
+      </c>
+      <c r="C484" t="n">
+        <v>442</v>
+      </c>
+      <c r="D484" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B485" s="1" t="n">
+        <v>44097</v>
+      </c>
+      <c r="C485" t="n">
+        <v>12487</v>
+      </c>
+      <c r="D485" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B486" s="1" t="n">
+        <v>44098</v>
+      </c>
+      <c r="C486" t="n">
+        <v>364</v>
+      </c>
+      <c r="D486" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B487" s="1" t="n">
+        <v>44098</v>
+      </c>
+      <c r="C487" t="n">
+        <v>11544</v>
+      </c>
+      <c r="D487" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B488" s="1" t="n">
+        <v>44099</v>
+      </c>
+      <c r="C488" t="n">
+        <v>422</v>
+      </c>
+      <c r="D488" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B489" s="1" t="n">
+        <v>44099</v>
+      </c>
+      <c r="C489" t="n">
+        <v>10818</v>
+      </c>
+      <c r="D489" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B490" s="1" t="n">
+        <v>44100</v>
+      </c>
+      <c r="C490" t="n">
+        <v>270</v>
+      </c>
+      <c r="D490" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B491" s="1" t="n">
+        <v>44100</v>
+      </c>
+      <c r="C491" t="n">
+        <v>5736</v>
+      </c>
+      <c r="D491" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B492" s="1" t="n">
+        <v>44101</v>
+      </c>
+      <c r="C492" t="n">
+        <v>163</v>
+      </c>
+      <c r="D492" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B493" s="1" t="n">
+        <v>44101</v>
+      </c>
+      <c r="C493" t="n">
+        <v>2667</v>
+      </c>
+      <c r="D493" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B494" s="1" t="n">
+        <v>44102</v>
+      </c>
+      <c r="C494" t="n">
+        <v>316</v>
+      </c>
+      <c r="D494" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B495" s="1" t="n">
+        <v>44102</v>
+      </c>
+      <c r="C495" t="n">
+        <v>9073</v>
+      </c>
+      <c r="D495" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B496" s="1" t="n">
+        <v>44103</v>
+      </c>
+      <c r="C496" t="n">
+        <v>501</v>
+      </c>
+      <c r="D496" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B497" s="1" t="n">
+        <v>44103</v>
+      </c>
+      <c r="C497" t="n">
+        <v>11960</v>
+      </c>
+      <c r="D497" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B498" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="C498" t="n">
+        <v>597</v>
+      </c>
+      <c r="D498" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B499" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="C499" t="n">
+        <v>11289</v>
+      </c>
+      <c r="D499" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B500" s="1" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C500" t="n">
+        <v>592</v>
+      </c>
+      <c r="D500" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B501" s="1" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C501" t="n">
+        <v>11459</v>
+      </c>
+      <c r="D501" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B502" s="1" t="n">
+        <v>44106</v>
+      </c>
+      <c r="C502" t="n">
+        <v>657</v>
+      </c>
+      <c r="D502" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B503" s="1" t="n">
+        <v>44106</v>
+      </c>
+      <c r="C503" t="n">
+        <v>10574</v>
+      </c>
+      <c r="D503" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B504" s="1" t="n">
+        <v>44107</v>
+      </c>
+      <c r="C504" t="n">
+        <v>625</v>
+      </c>
+      <c r="D504" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B505" s="1" t="n">
+        <v>44107</v>
+      </c>
+      <c r="C505" t="n">
+        <v>6976</v>
+      </c>
+      <c r="D505" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B506" s="1" t="n">
+        <v>44108</v>
+      </c>
+      <c r="C506" t="n">
+        <v>342</v>
+      </c>
+      <c r="D506" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B507" s="1" t="n">
+        <v>44108</v>
+      </c>
+      <c r="C507" t="n">
+        <v>3216</v>
+      </c>
+      <c r="D507" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B508" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="C508" t="n">
+        <v>853</v>
+      </c>
+      <c r="D508" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B509" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="C509" t="n">
+        <v>11028</v>
+      </c>
+      <c r="D509" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B510" s="1" t="n">
+        <v>44110</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1113</v>
+      </c>
+      <c r="D510" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B511" s="1" t="n">
+        <v>44110</v>
+      </c>
+      <c r="C511" t="n">
+        <v>13747</v>
+      </c>
+      <c r="D511" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B512" s="1" t="n">
+        <v>44111</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D512" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B513" s="1" t="n">
+        <v>44111</v>
+      </c>
+      <c r="C513" t="n">
+        <v>14025</v>
+      </c>
+      <c r="D513" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B514" s="1" t="n">
+        <v>44112</v>
+      </c>
+      <c r="C514" t="n">
+        <v>1522</v>
+      </c>
+      <c r="D514" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B515" s="1" t="n">
+        <v>44112</v>
+      </c>
+      <c r="C515" t="n">
+        <v>14289</v>
+      </c>
+      <c r="D515" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B516" s="1" t="n">
+        <v>44113</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D516" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B517" s="1" t="n">
+        <v>44113</v>
+      </c>
+      <c r="C517" t="n">
+        <v>14267</v>
+      </c>
+      <c r="D517" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B518" s="1" t="n">
+        <v>44114</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D518" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B519" s="1" t="n">
+        <v>44114</v>
+      </c>
+      <c r="C519" t="n">
+        <v>9252</v>
+      </c>
+      <c r="D519" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B520" s="1" t="n">
+        <v>44115</v>
+      </c>
+      <c r="C520" t="n">
+        <v>829</v>
+      </c>
+      <c r="D520" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B521" s="1" t="n">
+        <v>44115</v>
+      </c>
+      <c r="C521" t="n">
+        <v>4308</v>
+      </c>
+      <c r="D521" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B522" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="C522" t="n">
+        <v>1968</v>
+      </c>
+      <c r="D522" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B523" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="C523" t="n">
+        <v>13083</v>
+      </c>
+      <c r="D523" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B524" s="1" t="n">
+        <v>44117</v>
+      </c>
+      <c r="C524" t="n">
+        <v>2792</v>
+      </c>
+      <c r="D524" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B525" s="1" t="n">
+        <v>44117</v>
+      </c>
+      <c r="C525" t="n">
+        <v>17540</v>
+      </c>
+      <c r="D525" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B526" s="1" t="n">
+        <v>44118</v>
+      </c>
+      <c r="C526" t="n">
+        <v>2914</v>
+      </c>
+      <c r="D526" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B527" s="1" t="n">
+        <v>44118</v>
+      </c>
+      <c r="C527" t="n">
+        <v>17438</v>
+      </c>
+      <c r="D527" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B528" s="1" t="n">
+        <v>44119</v>
+      </c>
+      <c r="C528" t="n">
+        <v>3281</v>
+      </c>
+      <c r="D528" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B529" s="1" t="n">
+        <v>44119</v>
+      </c>
+      <c r="C529" t="n">
+        <v>18870</v>
+      </c>
+      <c r="D529" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B530" s="1" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C530" t="n">
+        <v>3789</v>
+      </c>
+      <c r="D530" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B531" s="1" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C531" t="n">
+        <v>20618</v>
+      </c>
+      <c r="D531" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B532" s="1" t="n">
+        <v>44121</v>
+      </c>
+      <c r="C532" t="n">
+        <v>2989</v>
+      </c>
+      <c r="D532" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B533" s="1" t="n">
+        <v>44121</v>
+      </c>
+      <c r="C533" t="n">
+        <v>13123</v>
+      </c>
+      <c r="D533" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B534" s="1" t="n">
+        <v>44122</v>
+      </c>
+      <c r="C534" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D534" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B535" s="1" t="n">
+        <v>44122</v>
+      </c>
+      <c r="C535" t="n">
+        <v>6715</v>
+      </c>
+      <c r="D535" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B536" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="C536" t="n">
+        <v>4165</v>
+      </c>
+      <c r="D536" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B537" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="C537" t="n">
+        <v>17278</v>
+      </c>
+      <c r="D537" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B538" s="1" t="n">
+        <v>44124</v>
+      </c>
+      <c r="C538" t="n">
+        <v>5941</v>
+      </c>
+      <c r="D538" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B539" s="1" t="n">
+        <v>44124</v>
+      </c>
+      <c r="C539" t="n">
+        <v>23138</v>
+      </c>
+      <c r="D539" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B540" s="1" t="n">
+        <v>44125</v>
+      </c>
+      <c r="C540" t="n">
+        <v>6123</v>
+      </c>
+      <c r="D540" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B541" s="1" t="n">
+        <v>44125</v>
+      </c>
+      <c r="C541" t="n">
+        <v>22258</v>
+      </c>
+      <c r="D541" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B542" s="1" t="n">
+        <v>44126</v>
+      </c>
+      <c r="C542" t="n">
+        <v>6818</v>
+      </c>
+      <c r="D542" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B543" s="1" t="n">
+        <v>44126</v>
+      </c>
+      <c r="C543" t="n">
+        <v>23864</v>
+      </c>
+      <c r="D543" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B544" s="1" t="n">
+        <v>44127</v>
+      </c>
+      <c r="C544" t="n">
+        <v>7498</v>
+      </c>
+      <c r="D544" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B545" s="1" t="n">
+        <v>44127</v>
+      </c>
+      <c r="C545" t="n">
+        <v>24827</v>
+      </c>
+      <c r="D545" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B546" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="C546" t="n">
+        <v>5824</v>
+      </c>
+      <c r="D546" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B547" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="C547" t="n">
+        <v>16943</v>
+      </c>
+      <c r="D547" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B548" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="C548" t="n">
+        <v>3660</v>
+      </c>
+      <c r="D548" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B549" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="C549" t="n">
+        <v>9391</v>
+      </c>
+      <c r="D549" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B550" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="C550" t="n">
+        <v>7442</v>
+      </c>
+      <c r="D550" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B551" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="C551" t="n">
+        <v>21103</v>
+      </c>
+      <c r="D551" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B552" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="C552" t="n">
+        <v>10029</v>
+      </c>
+      <c r="D552" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B553" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="C553" t="n">
+        <v>27552</v>
+      </c>
+      <c r="D553" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B554" s="1" t="n">
+        <v>44132</v>
+      </c>
+      <c r="C554" t="n">
+        <v>9602</v>
+      </c>
+      <c r="D554" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B555" s="1" t="n">
+        <v>44132</v>
+      </c>
+      <c r="C555" t="n">
+        <v>27448</v>
+      </c>
+      <c r="D555" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B556" s="1" t="n">
+        <v>44133</v>
+      </c>
+      <c r="C556" t="n">
+        <v>9624</v>
+      </c>
+      <c r="D556" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B557" s="1" t="n">
+        <v>44133</v>
+      </c>
+      <c r="C557" t="n">
+        <v>28006</v>
+      </c>
+      <c r="D557" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B558" s="1" t="n">
+        <v>44134</v>
+      </c>
+      <c r="C558" t="n">
+        <v>9559</v>
+      </c>
+      <c r="D558" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B559" s="1" t="n">
+        <v>44134</v>
+      </c>
+      <c r="C559" t="n">
+        <v>27498</v>
+      </c>
+      <c r="D559" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B560" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="C560" t="n">
+        <v>6371</v>
+      </c>
+      <c r="D560" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B561" s="1" t="n">
+        <v>44135</v>
+      </c>
+      <c r="C561" t="n">
+        <v>16351</v>
+      </c>
+      <c r="D561" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B562" s="1" t="n">
+        <v>44136</v>
+      </c>
+      <c r="C562" t="n">
+        <v>3268</v>
+      </c>
+      <c r="D562" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44137.3218402778</v>
+      </c>
+      <c r="B563" s="1" t="n">
+        <v>44136</v>
+      </c>
+      <c r="C563" t="n">
+        <v>5915</v>
+      </c>
+      <c r="D563" t="s">
         <v>5</v>
       </c>
     </row>
